--- a/biology/Mycologie/Tremella/Tremella.xlsx
+++ b/biology/Mycologie/Tremella/Tremella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tremella est un genre de champignons basidiomycètes très courants, qui regroupe une partie des espèces appelées « trémelles » en français. Ces champignons ont une consistance gélatineuse et cartilagineuse au début et deviennent plus durs et cornés en séchant. Ils sont saprophytes, et parasitent d’autres champignons vivant sur le bois (notamment les corticiacées)[1], ou des lichens.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tremella est un genre de champignons basidiomycètes très courants, qui regroupe une partie des espèces appelées « trémelles » en français. Ces champignons ont une consistance gélatineuse et cartilagineuse au début et deviennent plus durs et cornés en séchant. Ils sont saprophytes, et parasitent d’autres champignons vivant sur le bois (notamment les corticiacées), ou des lichens.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tremella aurantia
 Tremella aurantialba, jīn ěr (金耳; littéralement « oreille dorée »), consommée en Chine.
